--- a/inst/extdata/LongLat_data.xlsx
+++ b/inst/extdata/LongLat_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bngwa\Documents\Brandon\GDA_Markdown\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bngwa\Documents\Brandon\MPB_grcMalaria\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6ECA50C-49A2-4BBA-8488-7EE7E7497D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233C246B-34D9-45DB-BA04-2F3D87906DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34050" yWindow="4095" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
